--- a/LabReport/Lab2/Lab2 (ISP test case design).xlsx
+++ b/LabReport/Lab2/Lab2 (ISP test case design).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GeoProject\LabReport\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBF6FF-6542-42B5-BB9A-0EE10DCC084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02695421-B7AF-4BB3-9FAE-24F255F32300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>Method</t>
   </si>
@@ -462,6 +462,55 @@
 T2:{i=-15, expected result: "-00000000000g"},
 T3:{i=0, expected result: "000000000000"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decodeBase32(String hash)</t>
+  </si>
+  <si>
+    <t>String, hash</t>
+  </si>
+  <si>
+    <t>geohash as a string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1,C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: hash startsWith " - "
+C2: hash is null</t>
+  </si>
+  <si>
+    <t>C1: {true, false}
+C2: {true, false}</t>
+  </si>
+  <si>
+    <t>{TT, FT, TF, FF}</t>
+  </si>
+  <si>
+    <t>Base: {TF},
+{FF, FT}</t>
+  </si>
+  <si>
+    <t>{TT}</t>
+  </si>
+  <si>
+    <t>T1:{hash="-29jw", expected result: -75324},
+T2:{hash="15pn7", expected result: 1234567},
+T3:{hash=null, expected result: NullPointerException}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TF},
+T2: covers {FF},
+T3: covers {FT}</t>
+  </si>
+  <si>
+    <t>GeoHash</t>
+  </si>
+  <si>
+    <t>encodeHash(double,double):String</t>
   </si>
 </sst>
 </file>
@@ -529,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -537,13 +586,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,6 +684,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -914,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1258,7 @@
       <c r="M4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="40" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="17" t="s">
@@ -1205,7 +1314,7 @@
       <c r="M5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="O5" s="28" t="s">
@@ -1219,6 +1328,70 @@
       </c>
       <c r="R5" s="29" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/LabReport/Lab2/Lab2 (ISP test case design).xlsx
+++ b/LabReport/Lab2/Lab2 (ISP test case design).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GeoProject\LabReport\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02695421-B7AF-4BB3-9FAE-24F255F32300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803462F5-198B-4D08-BD02-3B27C1746D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
   <si>
     <t>Method</t>
   </si>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hasNext()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Partitions (Blocks)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>true, false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,86 +75,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{T, F}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1:{iterator=[e1,e2, e3]}, T2:{iterator=[]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state of iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s - the String containing the integer representation to be parsed  
-radix - the radix to be used in interpreting s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parseInt(String s,
-           int radix)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the integer represented by the string argument in the specified radix
- (&gt;= MIN_VALUE; &lt;= MAX_VALUE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1: has more values</t>
-  </si>
-  <si>
-    <t>T1 covers {T}, 
-T2 covers {F}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C1: {true, false}</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
-    <t>ClassA</t>
-  </si>
-  <si>
-    <t>ClassB</t>
-  </si>
-  <si>
-    <t>C1, C2, C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{TTT}, {TTF}, {TFT}, {TFF}, {FTT}, {FTF}, {FFT}, {FFF}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base:{TTT}, 
-{TTF}, {TFT}, {FTT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{FTT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Revised TRs (All Combination Coverage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTT --&gt; FTF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Cases (All Combination Coverage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,135 +102,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base:{T},
-F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1 covers {TTT}, 
-T2 covers {TFT, TFF},
-T3 covers {FTF}, 
-T4 covers {FFT, FFF}, 
-T5 covers {TTF}, …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Memo (All Combination Coverage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Memo (BaseChoice Coverage)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1 covers {TTT}, 
-T2 covers {TFT},
-T3 covers {FTF},  
-T5 covers {TTF}, …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(FTT cannot be revised because such inputs cannot be generated. Therefore, FTT is removed from TRs)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumberFormatException - if the string does not contain a parsable integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1:{iterator=[e1,e2, e3], expect:true}, T2:{iterator=[], expect:false}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1: {valid(T) ={s="-1", s="0", s="1", s="99", s="geeks", s="0x7fffffff", ...}, invalid(F)={s=null, s="", s=" ", s="0x80000000", s="aaa", s="-0.1", s="+0a", ...}; 
-C2: {valid(T)={radix=10, radix=2, radix=8, radix=16, ...}, invalid(F)={radix=37, radix=1, ...}}; 
-C3: {true, false}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T1:{s="-1", radix=10, expected result:-1},
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T11:{s="aaa", radix=16, expected result:2730}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-T2:{s="1", radix=37, expected result:NumberFormatException},
-T3:{s="aaa", radix=8, expected result:NumberFormatException},
-T4:{s="0.1", radix=37, expected result:NumberFormatException}, 
-T5:{s="99", radix=8, expected result:NumberFormatException}, …</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T1:{s="-1", radix=10, expected result:-1},
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T11:{s="aaa", radix=16, expected result:2730}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-T2:{s="1", radix=37, expected result:NumberFormatException},
-T3:{s="aaa", radix=8, expected result:NumberFormatException}, 
-T5:{s="99", radix=8, expected result:NumberFormatException}, …</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C1: s is a valid integer (MIN_VALUE&lt;= s &lt;= MAX_VALUE); 
-C2: radix is valid (Character.MIN_RADIX &lt;= radix &lt;= Character.MAX_RADIX)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C3: NumberFormatException does NOT occur</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,12 +299,558 @@
   <si>
     <t>encodeHash(double,double):String</t>
   </si>
+  <si>
+    <t>1.double, latitude
+2.double, longitude
+3.int, length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash at given point of default length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.double, latitude
+2.double, longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: -90&lt;=latitude&lt;=90
+C2: -180&lt;=longitude&lt;=180,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: {T, F}
+C2: {T, F}
+C3: {T, F}</t>
+  </si>
+  <si>
+    <t>C1: {T, F}
+C2: {T, F}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TT, FT, TF}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TTT},
+T2: covers {TTF},
+T3: covers {TFT},
+T4: covers {FTT},
+T5: covers {TFF},
+T6: covers {FTF},
+T7: covers {FFT},
+T8: covers {FFF}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1: covers {TT},
+T2: covers {FT},
+T3: covers {TF},
+T4: covers {FF}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TT},
+T2: covers {FT},
+T3: covers {TF}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encodeHash(double latitude, double longitude, int length)</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
+  </si>
+  <si>
+    <t>geohash of given length for the given point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1,C2,C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TTT, TTF, TFT, FTT, 
+ TFF, FTF, FFT, FFF}</t>
+  </si>
+  <si>
+    <t>Base:{TTT}, 
+{TTF}, {TFT}, {FTT}</t>
+  </si>
+  <si>
+    <t>T1: covers {TTT},
+T2: covers {TTF},
+T3: covers {TFT},
+T4: covers {FTT}</t>
+  </si>
+  <si>
+    <t>new LatLone(double deltaLat, double deltaLon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns a geohash of of length MAX_HASH_LENGTH (12) for the given WGS84 point.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: -90&lt;=latitude&lt;=90
+C2: -180&lt;=longitude&lt;=180,
+C3: length&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: deltaLat in LatLone is -90&lt;=latitude&lt;=90
+C2:  deltaLon in LatLone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: {T, F}
+C2: {less than 0,greater or equal than zero0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TA, TB, FA,FB}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: {latitude=25.5 longitude=-1 , expected result: "eux314pu629c"}
+T2: {latitude=25.5 longitude=0 , expected result: "sh81040h2081"}
+T3: {latitude=-91 longitude=-20 , expected result: IllegalArgumentException}
+T4: {latitude=91 longitude=20 , expected  result: IllegalArgumentException}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1: covers {TA},
+T2: covers {TB},
+T3: covers {FA},
+T4: covers {FB}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encodeHash(LatLong p, int length):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encodeHash(LatLong p):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.new LatLone(double deltaLat, double deltaLon)
+2.length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns a geohash of given length for the given WGS84 point.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: deltaLat in LatLone is -90&lt;=latitude&lt;=90
+C2:  deltaLon in LatLone
+C3: length &gt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: {T, F}
+C2: {less than 0,greater or equal than zero0}
+C3: {T, F}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TAT,TBT,FAT,FBT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TAT, TAF
+,TBT,TBF,
+FAT,FAF,
+FBT,FBF
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1: {latitude=25.5 longitude=-1 length = 5, expected result: "eux31"}
+T2: {latitude=25.5 longitude=-1 length = 0, expected result: IllegalArgumentException}
+T3: {latitude=25.5 longitude=0 length = 10, expected result:"sh81040h20" }
+T4: {latitude=25.5 longitude=10 length = 10, expected result:"shx15d1u2b" }
+T5: {latitude=-91 longitude=-150 length = 10, expected result:IllegalArgumentException }
+T6: {latitude=91 longitude=-150 length = -9, expected result:IllegalArgumentException }
+T7: {latitude=-91 longitude=150 length = 10, expected result:IllegalArgumentException }
+T8: {latitude=91 longitude= 150 length = 10, expected result:IllegalArgumentException }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: {latitude=25.5 longitude=-1 length = 5, expected result: "eux31"}
+T3: {latitude=25.5 longitude=0 length = 10, expected result:"sh81040h20" }
+T5: {latitude=-91 longitude=-150 length = 10, expected result:IllegalArgumentException }
+T7: {latitude=-91 longitude=150 length = 10, expected result:IllegalArgumentException }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TAT},
+T2: covers {TAF},
+T3: covers {TBT},
+T4: covers {TBF},
+T5: covers {FAT},
+T6: covers {FAF},
+T7: covers {FBT},
+T8: covers {FBF}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TAT},
+T3: covers {TBT},
+T5: covers {FAT},
+T7: covers {FBT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashContains(String, double, double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.String, hash
+2.double, latitude
+3.double, longitude
+</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>C1: hash is null,
+C2: -90&lt;=latitude&lt;=90,
+C3: -180&lt;=longitude&lt;=180,</t>
+  </si>
+  <si>
+    <t>{TTT}, 
+{TTF}, {TFT}, {FTT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1:{hash=null latitude=25.5 longitude=122.2, expected result: NullPointerException},
+T2:{hash=null latitude=25.5 longitude=-181, expected result: NullPointerException},
+T3:{hash=null latitude=-91 longitude=122, expected result: NullPointerException},
+T4:{hash="wsqqqm28" latitude=25.044228 longitude=121.533133, expected result: True},
+T5:{hash=null latitude=-91 longitude=-200, expected result: NullPointerException},
+T6:{hash="wsqq" latitude=25.044228 longitude=-181, expected result: False},
+T7:{hash="wsqq" latitude=-91 longitude=121.533133, expected result: False},
+T6:{hash="wsqq" latitude=-91 longitude=-181, expected result: False}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1:{hash=null latitude=25.5 longitude=122.2, expected result: NullPointerException},
+T2:{hash=null latitude=25.5 longitude=-181, expected result: NullPointerException},
+T3:{hash=null latitude=-91 longitude=122, expected result: NullPointerException},
+T4:{hash="wsqqqm28" latitude=25.044228 longitude=121.533133, expected result: True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjacentHash (String hash,Direction direction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash of adjacent hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1:{T,F},
+C2:  {(A)Direction.BOTTOM,
+(B)Direction.TOP,
+(C)Direction.LEFT,
+(D)Direction.RIGHT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: hash is null,
+C2: Direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TA,TB,TC,TD,
+FA,FB,FC,FD}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TA,FA,FB,FC,FD}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TA},
+T2: covers {TB},
+T3: covers {TC},
+T4: covers {TD},
+T5: covers {FA},
+T6: covers {FB},
+T7: covers {FC},
+T8: covers {FD}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TA},
+T5: covers {FA},
+T6: covers {FB},
+T7: covers {FC},
+T8: covers {FD}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1:{hash = null Direction = Direction.BOTTOM, expected result:NullPointerException},
+T2:{hash = null Direction = Direction.TOP, expected result:NullPointerException},
+T3:{hash = null Direction = Direction.LEFT, expected result:NullPointerException},
+T4:{hash = null Direction = Direction.RIGHT, expected result:NullPointerException},
+T5:{hash = "yenq" Direction = Direction.BOTTOM, expected result:"yenq"},
+T6:{hash = "131x" Direction = Direction.TOP, expected result:"1338"},
+T7:{hash = "h1gw" Direction = Direction.LEFT, expected result:"h1gq"},
+T8:{hash = "23y0" Direction = Direction.LEFT, expected result:"23y2"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1:{hash = null Direction = Direction.BOTTOM, expected result:NullPointerException},
+T5:{hash = "yenq" Direction = Direction.BOTTOM, expected result:"yenq"},
+T6:{hash = "131x" Direction = Direction.TOP, expected result:"1338"},
+T7:{hash = "h1gw" Direction = Direction.LEFT, expected result:"h1gq"},
+T8:{hash = "23y0" Direction = Direction.LEFT, expected result:"23y2"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1: {latitude=25.5 longitude=110.5 , expected result: "wkw946psk8ec"}
+T2: {latitude=-91 longitude=110.5 , expected result: IllegalArgumentException}
+T3: {latitude=25.5 longitude=181 , expected result: "8h89nf0hm8w1"}
+T4: {latitude=91 longitude=-181 , expected </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: {latitude=-60.5 longitude=121.8 length=1, expected result: "n"}
+T2: {latitude=-60.5 longitude=121.8 length=0, expected result: IllegalArgumentException}
+T3: {latitude=-60.5 longitude=-181 length=1, expected result: "p"}
+T4: {latitude=-91 longitude=121.8 length=1, expected result: IllegalArgumentException}
+T5: {latitude=60.5 longitude=-181 length=0, expected result: IllegalArgumentException}
+T6: {latitude=-91 longtitude=121.6 length=-1, expected result: IllegalArgumentException}
+T7: {latitude=-91 longtitude=-181 length=1, expected result: IllegalArgumentException}
+T8: {latitude=-91 longtitude=-181 length=-1, expected result: IllegalArgumentException}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: {latitude=-60.5 longitude=121.8 length=1, expected result: "n"}
+T2: {latitude=-60.5 longitude=121.8 length=0, expected result: IllegalArgumentException}
+T3: {latitude=-60.5 longitude=-181 length=1, expected result: "p"}
+T4: {latitude=-91 longitude=121.8 length=1, expected result: IllegalArgumentException}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: {latitude=25.5 longitude=110.5 , expected result: "wkw946psk8ec"}
+T2: {latitude=-91 longitude=110.5 , expected result: IllegalArgumentException}
+T3: {latitude=25.5 longitude=181 , expected result: "8h89nf0hm8w1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjacentHash (String, Direction,int)</t>
+  </si>
+  <si>
+    <t>1.hash - string hash relative to which the adjacent is returned
+2.direction - direction relative to hash for which the adjacent is returned
+3.steps - number of hashes distance to desired hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash at position in direction a number of hashes away (steps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geomem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add(double latitude, double longitude, int time, int t)</t>
+  </si>
+  <si>
+    <t>1. double, latitude
+2. double, longitude
+3. int, time
+4. int, t</t>
+  </si>
+  <si>
+    <t>C1: latitude,
+C2: longitude</t>
+  </si>
+  <si>
+    <t>C1: -90&lt;=latitude&lt;=90
+C2: -180&lt;=longitude&lt;=180</t>
+  </si>
+  <si>
+    <t>C1: {T, F},
+C2: {T, F}</t>
+  </si>
+  <si>
+    <t>Base: {TT,TF, FT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+T1: {lantitude=25.5 longitude=122 expected result: no exception},
+T2: {lantitude=-91 longitude=122 expected result: IllegalArgumentException},
+T3: {lantitude=60 longitude==188 expected result: IllegalArgumentException},
+T4: {lantitude=-91 longitude=-181 expected result: IllegalArgumentException}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1: covers {TT},
+T2: covers {FT},
+T3: covers {TF},
+T4: covers {FF}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+T1: {lantitude=25.5 longitude=122 expected result: no exception},
+T2: {lantitude=-91 longitude=122 expected result: IllegalArgumentException},
+T3: {lantitude=60 longitude==188 expected result:  no exception},
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{T, F}</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRatio()</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>ratio of area of hashes to area of target region.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: ratio is valid
+(MIN_VALUE &lt;= ratio &lt;= MAX_VALUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1:{valid(T)={ratio:1, ratio:2 ..}
+invalid(F)={Double.parseDouble(" x")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base{T}, {F}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{F}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{T}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1:{ratio:1, expected result=123.0},
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1:{ratio:0.5, expected result=0.5},
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1 covers {T}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHashLength()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>New Coverage object
+1.Set&lt;String&gt; hashes
+2. double ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Coverage object
+1. long[] hashes
+2. double ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: length of hash is valid
+(MIN_VALUE &lt;= ratio &lt;= MAX_VALUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1:{valid(T)={lengh of hash&gt;=0}
+invalid(F)={null)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T1:{newHashSet("1234"), expected result=4},
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeoHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.hash - string hash relative to which the adjacent is returned
+2.direction - direction relative to hash for which the adjacent is returned
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: hash is null,
+C2: Direction
+C3: steps&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1:{T,F},
+C2:  {(A)Direction.BOTTOM,
+(B)Direction.TOP,
+(C)Direction.LEFT,
+(D)Direction.RIGHT
+C3: T,F}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{TAT,TBT,TCT,TDT,
+TAF,TBF,TCF,TDF
+FAT,FBT,FCT,FDT,
+FAF,FBF,FCF,FDF,}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{FAT,FBT,FCT,FDT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,12 +881,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -607,35 +934,80 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -644,77 +1016,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -722,15 +1073,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -740,7 +1154,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,21 +1506,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
     <col min="10" max="10" width="32.44140625" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" customWidth="1"/>
@@ -1050,348 +1536,788 @@
     <col min="18" max="18" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="280.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="343.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="156" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="358.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="E9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>42</v>
+      <c r="E10" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" s="74" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="11" spans="1:18" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" s="92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="234" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>22</v>
+      <c r="E12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" s="83" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="197.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>43</v>
+    <row r="13" spans="1:18" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="R13" s="88" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="280.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>90</v>
+    <row r="14" spans="1:18" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q14" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="94" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
